--- a/RUDN/Importance/Varible_f_reg_in_Western Europe.xlsx
+++ b/RUDN/Importance/Varible_f_reg_in_Western Europe.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="223">
   <si>
     <t>F-value</t>
   </si>
@@ -28,685 +28,661 @@
     <t>Internet users (per 100 people)</t>
   </si>
   <si>
-    <t>Bilateral ODA commitments that is untied (% of bilateral ODA commitments)</t>
+    <t>GNI per capita, Atlas method (current US$)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, female (% of female population ages 15+) (national estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, female (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Proportion of women in ministerial level positions (%)</t>
   </si>
   <si>
     <t>Tuberculosis treatment success rate (% of new cases)</t>
   </si>
   <si>
-    <t>Share of women in wage employment in the nonagricultural sector (% of total nonagricultural employment)</t>
-  </si>
-  <si>
-    <t>Share of women employed in the nonagricultural sector (% of total nonagricultural employment)</t>
+    <t>Age at first marriage, female</t>
+  </si>
+  <si>
+    <t>Death rate, crude (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>GDP per capita (Current US$)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male labor force participation rate (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, male (% net)</t>
+  </si>
+  <si>
+    <t>Government expenditure per student, primary (% of GDP per capita)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (% net)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, female (% net)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, total (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Lower secondary completion rate, male (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Lower secondary completion rate, female (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Agricultural support estimate (% of GDP)</t>
+  </si>
+  <si>
+    <t>Sex ratio at birth (male births per female births)</t>
+  </si>
+  <si>
+    <t>Country_code</t>
+  </si>
+  <si>
+    <t>Age at first marriage, male</t>
+  </si>
+  <si>
+    <t>People using safely managed sanitation services (% of population)</t>
+  </si>
+  <si>
+    <t>Persistence to last grade of primary, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>Persistence to last grade of primary, total (% of cohort)</t>
+  </si>
+  <si>
+    <t>Persistence to last grade of primary, male (% of cohort)</t>
+  </si>
+  <si>
+    <t>Immunization, HepB3 (% of one-year-old children)</t>
+  </si>
+  <si>
+    <t>Antiretroviral therapy coverage for PMTCT (% of pregnant women living with HIV)</t>
+  </si>
+  <si>
+    <t>People using safely managed drinking water services (% of population)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, male (% of male population ages 15+) (national estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, male (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Energy use (kg of oil equivalent) per $1,000 GDP (constant 2011 PPP)</t>
+  </si>
+  <si>
+    <t>Rural population growth (annual %)</t>
+  </si>
+  <si>
+    <t>Rural population (% of total population)</t>
+  </si>
+  <si>
+    <t>Urban population (% of total)</t>
   </si>
   <si>
     <t>Mortality rate, adult, male (per 1,000 male adults)</t>
   </si>
   <si>
+    <t>School enrollment, tertiary, male (% gross)</t>
+  </si>
+  <si>
+    <t>Expected years of schooling, male</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Expected years of schooling, female</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary (% gross)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary, female (% gross)</t>
+  </si>
+  <si>
+    <t>CO2 emissions (kt)</t>
+  </si>
+  <si>
+    <t>Government expenditure per student, secondary (% of GDP per capita)</t>
+  </si>
+  <si>
     <t>Mortality rate, adult, female (per 1,000 female adults)</t>
   </si>
   <si>
+    <t>Mobile cellular subscriptions (per 100 people)</t>
+  </si>
+  <si>
+    <t>Employment in industry, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male youth unemployment rate (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Bilateral, sector-allocable ODA to basic social services (% of bilateral ODA commitments)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
+  </si>
+  <si>
     <t>Health expenditure, public (% of total health expenditure)</t>
   </si>
   <si>
     <t>Average tariffs imposed by developed countries on clothing products from developing countries (%)</t>
   </si>
   <si>
+    <t>Incidence of tuberculosis (per 100,000 people)</t>
+  </si>
+  <si>
+    <t>Employment in industry, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
+  </si>
+  <si>
+    <t>Wage and salaried workers, male (% of male employment)</t>
+  </si>
+  <si>
     <t>Average tariffs imposed by developed countries on textile products from developing countries (%)</t>
   </si>
   <si>
     <t>Average tariffs imposed by developed countries on agricultural products from least developed countries (%)</t>
   </si>
   <si>
+    <t>Population ages 35-39, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Wage and salaried workers, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Inflation, consumer prices (annual %)</t>
+  </si>
+  <si>
     <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
   </si>
   <si>
+    <t>Population ages 35-39, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 40-44, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Age dependency ratio, young</t>
+  </si>
+  <si>
+    <t>Mortality rate, under-5 (per 1,000)</t>
+  </si>
+  <si>
+    <t>Mortality rate, under-5 (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>Unemployment with intermediate education, female (% of female labor force with intermediate education)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force)</t>
+  </si>
+  <si>
+    <t>Population ages 00-14, male (% of total)</t>
+  </si>
+  <si>
+    <t>Unemployment with basic education, female (% of female labor force with basic education)</t>
+  </si>
+  <si>
+    <t>Population ages 40-44, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 0-14 (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 00-14 (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, male (% of total)</t>
+  </si>
+  <si>
+    <t>Mortality rate, infant (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>Population ages 00-14, female (% of total)</t>
+  </si>
+  <si>
     <t>Average tariffs imposed by developed countries on clothing products from least developed countries (%)</t>
   </si>
   <si>
+    <t>Unemployment, total (% of total labor force)</t>
+  </si>
+  <si>
+    <t>Population ages 75-79, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 70-74, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages10-14, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 30-34, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 10-14, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Employment in services, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force)</t>
+  </si>
+  <si>
+    <t>Population ages 05-09, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population, female (% of total)</t>
+  </si>
+  <si>
+    <t>Tuberculosis case detection rate (%, all forms)</t>
+  </si>
+  <si>
+    <t>Tuberculosis case detection rate (all forms)</t>
+  </si>
+  <si>
+    <t>Unemployment with basic education, male (% of male labor force with basic education)</t>
+  </si>
+  <si>
+    <t>Population ages 05-09, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
+  </si>
+  <si>
+    <t>Tuberculosis death rate (per 100,000 people)</t>
+  </si>
+  <si>
+    <t>Population ages 30-34, female (% of female population)</t>
+  </si>
+  <si>
     <t>CO2 emissions (kg per PPP $ of GDP)</t>
   </si>
   <si>
+    <t>Population ages 15-19, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on agricultural products from developing countries (%)</t>
+  </si>
+  <si>
+    <t>Net intake rate in grade 1, male (% of official school-age population)</t>
+  </si>
+  <si>
+    <t>Population ages 15-19, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 70-74, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Contributing family workers, female (% of female employment)</t>
+  </si>
+  <si>
     <t>Average tariffs imposed by developed countries on textile products from least developed countries (%)</t>
   </si>
   <si>
-    <t>Average tariffs imposed by developed countries on agricultural products from developing countries (%)</t>
+    <t>Mortality rate, neonatal (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>Unemployment with intermediate education, male (% of male labor force with intermediate education)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64 (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 00-04, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Net ODA provided to the least developed countries (% of donor GNI)</t>
+  </si>
+  <si>
+    <t>Net ODA provided, total (% of GNI)</t>
+  </si>
+  <si>
+    <t>Employment in agriculture, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Lifetime risk of maternal death (%)</t>
+  </si>
+  <si>
+    <t>People practicing open defecation, urban (% of urban population)</t>
+  </si>
+  <si>
+    <t>People practicing open defecation, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>Improved water source (% of population with access)</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services, urban (% of urban population)</t>
+  </si>
+  <si>
+    <t>Improved water source, urban (% of urban population with access)</t>
+  </si>
+  <si>
+    <t>Improved water source, rural (% of rural population with access)</t>
+  </si>
+  <si>
+    <t>Population ages 00-04, female (% of female population)</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>Population ages 65-69, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Unemployment with advanced education, female (% of female labor force with advanced education)</t>
+  </si>
+  <si>
+    <t>Own-account workers, male (% of males employed)</t>
+  </si>
+  <si>
+    <t>Population ages 75-79, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, female (% of total)</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities, rural (% of rural population with access)</t>
+  </si>
+  <si>
+    <t>Net intake rate in grade 1, female (% of official school-age population)</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>Population ages 20-24, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Labor force with intermediate education, male (% of male working-age population with intermediate education)</t>
+  </si>
+  <si>
+    <t>Unemployment with advanced education, male (% of male labor force with advanced education)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth female (% of female labor force ages 15-24) (national estimate)</t>
+  </si>
+  <si>
+    <t>Population ages 20-24, female (% of female population)</t>
+  </si>
+  <si>
+    <t>PPP conversion factor, GDP (LCU per international $)</t>
+  </si>
+  <si>
+    <t>Population ages 65-69, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities (% of population with access)</t>
+  </si>
+  <si>
+    <t>Age dependency ratio (% of working-age population)</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services, urban  (% of urban population)</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities, urban (% of urban population with access)</t>
+  </si>
+  <si>
+    <t>Population, male (% of total)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth female (% of female labor force ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>PPP conversion factor, private consumption (LCU per international $)</t>
+  </si>
+  <si>
+    <t>Population ages 45-49, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Contributing family workers, total (% of total employment)</t>
+  </si>
+  <si>
+    <t>Population ages 55-59, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 25-29, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 45-49, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 25-29, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Employment in agriculture, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, female (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 55-59, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Employers, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Contributing family workers, male (% of male employment)</t>
   </si>
   <si>
     <t>Health expenditure, public (% of GDP)</t>
   </si>
   <si>
+    <t>Population ages 60-64, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 50-54, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 50-54, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Vulnerable employment, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Population ages 60-64, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above (% of total)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among children (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Vulnerable employment, total (% of total employment)</t>
+  </si>
+  <si>
     <t>Health expenditure, private (% of GDP)</t>
   </si>
   <si>
+    <t>Number of maternal deaths</t>
+  </si>
+  <si>
+    <t>Population ages 80 and older, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Vulnerable employment, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Own-account workers, female (% of females employed)</t>
+  </si>
+  <si>
+    <t>Age dependency ratio, old</t>
+  </si>
+  <si>
+    <t>Population ages 80 and older, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, male (% of total)</t>
+  </si>
+  <si>
+    <t>Employers, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth male (% of male labor force ages 15-24) (national estimate)</t>
+  </si>
+  <si>
+    <t>Gross capital formation (% of GDP)</t>
+  </si>
+  <si>
     <t>Health expenditure, total (% of GDP)</t>
   </si>
   <si>
+    <t>Prevalence of anemia among pregnant women (%)</t>
+  </si>
+  <si>
+    <t>Self-employed, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth male (% of male labor force ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Self-employed, total (% of total employment)</t>
+  </si>
+  <si>
+    <t>Immunization, DPT (% of children ages 12-23 months)</t>
+  </si>
+  <si>
     <t>Prevalence of obesity, female (% of female population ages 18+)</t>
   </si>
   <si>
+    <t>Immunization, Pol3 (% of one-year-old children)</t>
+  </si>
+  <si>
+    <t>Self-employed, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Labor force, female (% of total labor force)</t>
+  </si>
+  <si>
     <t>Goods (excluding arms) admitted free of tariffs from least developed countries (% total merchandise imports excluding arms)</t>
   </si>
   <si>
+    <t>Survival to age 65, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>Immunization, measles (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>Labor force with intermediate education, female (% of female working-age population with intermediate education)</t>
+  </si>
+  <si>
+    <t>Labor force with advanced education, female (% of female working-age population with advanced education)</t>
+  </si>
+  <si>
     <t>Prevalence of overweight, female (% of female adults)</t>
   </si>
   <si>
+    <t>Labor force with advanced education, male (% of male working-age population with advanced education)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
+  </si>
+  <si>
     <t>Health expenditure, public (% of government expenditure)</t>
   </si>
   <si>
+    <t>Immunization, Hib3 (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, male (% of male population ages 15+) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
+  </si>
+  <si>
     <t>Prevalence of obesity, male (% of male population ages 18+)</t>
   </si>
   <si>
+    <t>Labor force with basic education, male (% of male working-age population with basic education)</t>
+  </si>
+  <si>
+    <t>Health expenditure, private (% of total health expenditure)</t>
+  </si>
+  <si>
     <t>Prevalence of overweight, male (% of male adults)</t>
   </si>
   <si>
-    <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
-  </si>
-  <si>
-    <t>Health expenditure, private (% of total health expenditure)</t>
+    <t>Employment in services, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Survival to age 65, male (% of cohort)</t>
+  </si>
+  <si>
+    <t>GDP per unit of energy use (constant 2011 PPP $ per kg of oil equivalent)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, total (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Trade (% of GDP)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, total (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Labor force with basic education, female (% of female working-age population with basic education)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male labor force participation rate (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, female (% of female population ages 15+) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, female (%) (modeled ILO estimate)</t>
   </si>
   <si>
     <t>Goods (excluding arms) admitted free of tariffs from developing countries (% total merchandise imports excluding arms)</t>
   </si>
   <si>
-    <t>Persistence to last grade of primary, total (% of cohort)</t>
-  </si>
-  <si>
-    <t>Persistence to last grade of primary, male (% of cohort)</t>
-  </si>
-  <si>
-    <t>Persistence to last grade of primary, female (% of cohort)</t>
-  </si>
-  <si>
-    <t>Government expenditure per student, secondary (% of GDP per capita)</t>
-  </si>
-  <si>
-    <t>Country_code</t>
-  </si>
-  <si>
-    <t>Energy use (kg of oil equivalent) per $1,000 GDP (constant 2011 PPP)</t>
-  </si>
-  <si>
-    <t>Primary education, teachers (% female)</t>
-  </si>
-  <si>
-    <t>Employment in industry, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Bilateral, sector-allocable ODA to basic social services (% of bilateral ODA commitments)</t>
-  </si>
-  <si>
-    <t>GDP per capita (Current US$)</t>
-  </si>
-  <si>
-    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
-  </si>
-  <si>
-    <t>Incidence of tuberculosis (per 100,000 people)</t>
-  </si>
-  <si>
-    <t>Employment in industry, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
-  </si>
-  <si>
-    <t>Tuberculosis death rate (per 100,000 people)</t>
-  </si>
-  <si>
-    <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
-  </si>
-  <si>
-    <t>Net ODA provided to the least developed countries (% of donor GNI)</t>
-  </si>
-  <si>
-    <t>Net ODA provided, total (% of GNI)</t>
-  </si>
-  <si>
-    <t>Lifetime risk of maternal death (%)</t>
-  </si>
-  <si>
-    <t>People using basic drinking water services, urban (% of urban population)</t>
-  </si>
-  <si>
-    <t>Improved water source, urban (% of urban population with access)</t>
-  </si>
-  <si>
-    <t>Improved water source, rural (% of rural population with access)</t>
-  </si>
-  <si>
-    <t>Improved water source (% of population with access)</t>
-  </si>
-  <si>
-    <t>People practicing open defecation, urban (% of urban population)</t>
-  </si>
-  <si>
-    <t>People practicing open defecation, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>People using basic drinking water services, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>Improved sanitation facilities, rural (% of rural population with access)</t>
-  </si>
-  <si>
-    <t>People using basic sanitation services, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>Improved sanitation facilities (% of population with access)</t>
-  </si>
-  <si>
-    <t>People using basic sanitation services, urban  (% of urban population)</t>
-  </si>
-  <si>
-    <t>Improved sanitation facilities, urban (% of urban population with access)</t>
-  </si>
-  <si>
-    <t>Number of maternal deaths</t>
-  </si>
-  <si>
-    <t>Survival to age 65, female (% of cohort)</t>
-  </si>
-  <si>
-    <t>Survival to age 65, male (% of cohort)</t>
-  </si>
-  <si>
-    <t>Agricultural support estimate (% of GDP)</t>
-  </si>
-  <si>
-    <t>CO2 emissions (kt)</t>
-  </si>
-  <si>
-    <t>GDP per unit of energy use (constant 2011 PPP $ per kg of oil equivalent)</t>
-  </si>
-  <si>
-    <t>Proportion of women in ministerial level positions (%)</t>
-  </si>
-  <si>
-    <t>CO2 emissions (metric tons per capita)</t>
-  </si>
-  <si>
-    <t>Antiretroviral therapy coverage for PMTCT (% of pregnant women living with HIV)</t>
-  </si>
-  <si>
-    <t>Tuberculosis case detection rate (all forms)</t>
-  </si>
-  <si>
-    <t>Tuberculosis case detection rate (%, all forms)</t>
-  </si>
-  <si>
-    <t>Total bilateral ODA commitments (current US$)</t>
-  </si>
-  <si>
-    <t>Bilateral ODA commitments that is untied (current US$)</t>
-  </si>
-  <si>
-    <t>Secondary education, teachers (% female)</t>
-  </si>
-  <si>
-    <t>Immunization, HepB3 (% of one-year-old children)</t>
-  </si>
-  <si>
-    <t>Secondary education, pupils (% female)</t>
-  </si>
-  <si>
-    <t>Primary education, pupils (% female)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, female (% gross)</t>
-  </si>
-  <si>
-    <t>Persistence to grade 5, male (% of cohort)</t>
-  </si>
-  <si>
-    <t>Persistence to grade 5, female (% of cohort)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Female share of employment in senior and middle management (%)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, male (% gross)</t>
-  </si>
-  <si>
-    <t>Mobile cellular subscriptions (per 100 people)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (% gross)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, female (% gross)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (% gross)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, male (% gross)</t>
-  </si>
-  <si>
-    <t>Ratio of female to male youth unemployment rate (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Wage and salaried workers, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Wage and salaried workers, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Unemployment with intermediate education, female (% of female labor force with intermediate education)</t>
-  </si>
-  <si>
-    <t>Unemployment with basic education, female (% of female labor force with basic education)</t>
-  </si>
-  <si>
-    <t>Employment in services, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Contributing family workers, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Own-account workers, male (% of males employed)</t>
-  </si>
-  <si>
-    <t>Employment in agriculture, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Unemployment with basic education, male (% of male labor force with basic education)</t>
-  </si>
-  <si>
-    <t>Unemployment with advanced education, female (% of female labor force with advanced education)</t>
-  </si>
-  <si>
-    <t>Unemployment with intermediate education, male (% of male labor force with intermediate education)</t>
-  </si>
-  <si>
-    <t>Unemployment with advanced education, male (% of male labor force with advanced education)</t>
-  </si>
-  <si>
-    <t>Contributing family workers, total (% of total employment)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth female (% of female labor force ages 15-24) (national estimate)</t>
-  </si>
-  <si>
-    <t>Employment in agriculture, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Employers, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Vulnerable employment, total (% of total employment)</t>
-  </si>
-  <si>
-    <t>Labor force with intermediate education, male (% of male working-age population with intermediate education)</t>
-  </si>
-  <si>
-    <t>Vulnerable employment, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Own-account workers, female (% of females employed)</t>
-  </si>
-  <si>
-    <t>Employers, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Self-employed, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth male (% of male labor force ages 15-24) (national estimate)</t>
-  </si>
-  <si>
-    <t>Self-employed, total (% of total employment)</t>
-  </si>
-  <si>
-    <t>Self-employed, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Rural population growth (annual %)</t>
-  </si>
-  <si>
-    <t>Labor force with advanced education, female (% of female working-age population with advanced education)</t>
-  </si>
-  <si>
-    <t>Labor force with intermediate education, female (% of female working-age population with intermediate education)</t>
-  </si>
-  <si>
-    <t>Labor force with advanced education, male (% of male working-age population with advanced education)</t>
-  </si>
-  <si>
-    <t>Employment in services, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Labor force with basic education, male (% of male working-age population with basic education)</t>
-  </si>
-  <si>
-    <t>Gross capital formation (% of GDP)</t>
-  </si>
-  <si>
-    <t>Labor force with basic education, female (% of female working-age population with basic education)</t>
-  </si>
-  <si>
-    <t>Vulnerable employment, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Contributing family workers, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Sex ratio at birth (male births per female births)</t>
-  </si>
-  <si>
-    <t>Trade (% of GDP)</t>
-  </si>
-  <si>
     <t>Population growth (annual %)</t>
   </si>
   <si>
-    <t>Urban population (% of total)</t>
-  </si>
-  <si>
-    <t>Rural population (% of total population)</t>
-  </si>
-  <si>
-    <t>People using safely managed drinking water services (% of population)</t>
-  </si>
-  <si>
-    <t>Death rate, crude (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>People practicing open defecation (% of population)</t>
-  </si>
-  <si>
-    <t>People using basic drinking water services (% of population)</t>
-  </si>
-  <si>
-    <t>Fertility rate, total (births per woman)</t>
-  </si>
-  <si>
-    <t>Birth rate, crude (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>People using basic sanitation services (% of population)</t>
-  </si>
-  <si>
-    <t>Health expenditure per capita, PPP (constant 2011 international $)</t>
-  </si>
-  <si>
-    <t>Health expenditure per capita, PPP</t>
-  </si>
-  <si>
-    <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>GDP growth (annual %)</t>
-  </si>
-  <si>
-    <t>Forest area (% of land area)</t>
-  </si>
-  <si>
-    <t>Time-related underemployment, female (% of employment)</t>
-  </si>
-  <si>
-    <t>People using safely managed sanitation services (% of population)</t>
-  </si>
-  <si>
-    <t>Inflation, consumer prices (annual %)</t>
-  </si>
-  <si>
-    <t>Population ages 35-39, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 35-39, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 40-44, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Mortality rate, under-5 (per 1,000)</t>
-  </si>
-  <si>
-    <t>Mortality rate, under-5 (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Age dependency ratio, young</t>
-  </si>
-  <si>
-    <t>Population ages 40-44, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 00-14, male (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, male (% of total)</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force)</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Population ages 0-14 (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 00-14 (% of total)</t>
-  </si>
-  <si>
-    <t>Mortality rate, infant (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Population ages 00-14, female (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages10-14, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 75-79, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Unemployment, total (% of total labor force)</t>
-  </si>
-  <si>
-    <t>Population ages 10-14, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 70-74, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 05-09, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population, female (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 30-34, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 05-09, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 15-19, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64 (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 15-19, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 30-34, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Mortality rate, neonatal (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Population ages 70-74, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 00-04, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 00-04, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 75-79, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 20-24, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 65-69, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 20-24, female (% of female population)</t>
-  </si>
-  <si>
-    <t>PPP conversion factor, GDP (LCU per international $)</t>
-  </si>
-  <si>
-    <t>Population ages 45-49, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, female (% of total)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth female (% of female labor force ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>PPP conversion factor, private consumption (LCU per international $)</t>
-  </si>
-  <si>
-    <t>Population ages 45-49, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, female (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 65-69, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population, male (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 25-29, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 55-59, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 25-29, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 55-59, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Age dependency ratio (% of working-age population)</t>
-  </si>
-  <si>
-    <t>Population ages 60-64, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 60-64, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 50-54, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 50-54, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 80 and older, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above (% of total)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among children (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Population ages 80 and older, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Age dependency ratio, old</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, male (% of total)</t>
-  </si>
-  <si>
-    <t>Immunization, DPT (% of children ages 12-23 months)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among pregnant women (%)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth male (% of male labor force ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Immunization, Pol3 (% of one-year-old children)</t>
-  </si>
-  <si>
-    <t>Labor force, female (% of total labor force)</t>
-  </si>
-  <si>
-    <t>Immunization, measles (% of children ages 12-23 months)</t>
-  </si>
-  <si>
-    <t>Births attended by skilled health staff (% of total)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, male (% of male population ages 15+) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Immunization, Hib3 (% of children ages 12-23 months)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, total (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, total (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Ratio of female to male labor force participation rate (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, female (% of female population ages 15+) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, female (%) (modeled ILO estimate)</t>
+    <t>Progression to secondary school, female (%)</t>
+  </si>
+  <si>
+    <t>Progression to secondary school, male (%)</t>
   </si>
 </sst>
 </file>
@@ -1064,7 +1040,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C230"/>
+  <dimension ref="A1:C222"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1083,7 +1059,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>133.0404056531493</v>
+        <v>115.5611230432538</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1094,7 +1070,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>76.41783733701986</v>
+        <v>64.02309861500981</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1105,7 +1081,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>61.30318473846547</v>
+        <v>46.07431266843244</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1116,7 +1092,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>46.91270167568796</v>
+        <v>40.62180003831234</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1127,7 +1103,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>42.27079949376928</v>
+        <v>37.39394547818873</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1138,7 +1114,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>42.27079949376928</v>
+        <v>35.45188796382038</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1149,7 +1125,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>34.25939454862085</v>
+        <v>33.84682375436307</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1160,7 +1136,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>33.0898902642742</v>
+        <v>33.8239315329326</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1171,7 +1147,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>30.74016857596157</v>
+        <v>29.42093554435122</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1182,7 +1158,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>30.65993297037041</v>
+        <v>26.90384033685291</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1193,7 +1169,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>30.50215269640941</v>
+        <v>26.84289795354321</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1204,7 +1180,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>30.49007450015488</v>
+        <v>25.40003375360928</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1215,7 +1191,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>30.46674080050779</v>
+        <v>25.30659265259773</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1226,7 +1202,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>30.38987298589416</v>
+        <v>25.25210351074771</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1237,7 +1213,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>30.35536448511967</v>
+        <v>25.09388451362294</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1248,10 +1224,10 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>30.34283833847543</v>
+        <v>22.45427433996454</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1259,10 +1235,10 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>30.34246789307408</v>
+        <v>20.78744014409724</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1270,10 +1246,10 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>30.28482034515763</v>
+        <v>20.7191473168337</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1281,10 +1257,10 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>30.26079041404343</v>
+        <v>20.49473832869296</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>2e-05</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1292,10 +1268,10 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>30.20510180757192</v>
+        <v>20.13357568635663</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>2e-05</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1303,10 +1279,10 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>30.1828324869909</v>
+        <v>19.49960870759888</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>3e-05</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1314,10 +1290,10 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>30.12935896695743</v>
+        <v>18.61983578237533</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>4e-05</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1325,10 +1301,10 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>30.10586089444201</v>
+        <v>18.29616178195126</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>4e-05</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1336,10 +1312,10 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>30.04720564423842</v>
+        <v>16.75099194875547</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>9.000000000000001e-05</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1347,10 +1323,10 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>30.01783681325788</v>
+        <v>16.74809297240494</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>9.000000000000001e-05</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1358,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>30.00998482014663</v>
+        <v>16.74507272067074</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>9.000000000000001e-05</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1369,10 +1345,10 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>29.96112767370914</v>
+        <v>14.39599139915067</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>0.00025</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1380,10 +1356,10 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>29.93983188401351</v>
+        <v>14.342666272671</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>0.00026</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1391,10 +1367,10 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>29.54549538576191</v>
+        <v>13.89585474841309</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>0.00032</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1402,10 +1378,10 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>24.33047853735052</v>
+        <v>12.41725309029857</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>0.0006400000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1413,10 +1389,10 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>24.07821524818825</v>
+        <v>11.00639323857357</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>0.00126</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1424,10 +1400,10 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>24.07773134790078</v>
+        <v>10.52803667031984</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>0.00159</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1435,10 +1411,10 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>20.61942629589121</v>
+        <v>10.22165387201938</v>
       </c>
       <c r="C34">
-        <v>1e-05</v>
+        <v>0.00185</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1446,10 +1422,10 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>19.90183839439603</v>
+        <v>10.0276274654032</v>
       </c>
       <c r="C35">
-        <v>2e-05</v>
+        <v>0.00203</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1457,10 +1433,10 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>19.76984089450272</v>
+        <v>10.02762746540159</v>
       </c>
       <c r="C36">
-        <v>2e-05</v>
+        <v>0.00203</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1468,10 +1444,10 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>19.24629978989672</v>
+        <v>9.97295153845649</v>
       </c>
       <c r="C37">
-        <v>3e-05</v>
+        <v>0.00209</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1479,10 +1455,10 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>17.40398221021018</v>
+        <v>9.881397934846236</v>
       </c>
       <c r="C38">
-        <v>6e-05</v>
+        <v>0.00219</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1490,10 +1466,10 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>17.32241094177729</v>
+        <v>9.766057971129982</v>
       </c>
       <c r="C39">
-        <v>6e-05</v>
+        <v>0.00232</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1501,10 +1477,10 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>17.28043142746441</v>
+        <v>9.748234906632279</v>
       </c>
       <c r="C40">
-        <v>6e-05</v>
+        <v>0.00234</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1512,10 +1488,10 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>17.27122287493577</v>
+        <v>9.729195854210527</v>
       </c>
       <c r="C41">
-        <v>6e-05</v>
+        <v>0.00236</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1523,10 +1499,10 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>17.13295632204443</v>
+        <v>9.635516706678059</v>
       </c>
       <c r="C42">
-        <v>6.999999999999999e-05</v>
+        <v>0.00247</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1534,10 +1510,10 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>17.07975785453611</v>
+        <v>9.382806118524147</v>
       </c>
       <c r="C43">
-        <v>6.999999999999999e-05</v>
+        <v>0.0028</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1545,10 +1521,10 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>17.04232876132363</v>
+        <v>9.316544154574668</v>
       </c>
       <c r="C44">
-        <v>6.999999999999999e-05</v>
+        <v>0.0029</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1556,10 +1532,10 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>16.91709545854331</v>
+        <v>9.174564974344706</v>
       </c>
       <c r="C45">
-        <v>8.000000000000001e-05</v>
+        <v>0.00311</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1567,10 +1543,10 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>16.91709545854331</v>
+        <v>9.12212781277945</v>
       </c>
       <c r="C46">
-        <v>8.000000000000001e-05</v>
+        <v>0.00319</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1578,10 +1554,10 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>16.90345945077793</v>
+        <v>8.941720952356603</v>
       </c>
       <c r="C47">
-        <v>8.000000000000001e-05</v>
+        <v>0.00349</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1589,10 +1565,10 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>16.9025807549172</v>
+        <v>8.627305441029709</v>
       </c>
       <c r="C48">
-        <v>8.000000000000001e-05</v>
+        <v>0.00409</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1600,10 +1576,10 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>16.90088064890034</v>
+        <v>8.566468596011438</v>
       </c>
       <c r="C49">
-        <v>8.000000000000001e-05</v>
+        <v>0.00422</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1611,10 +1587,10 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>16.90072497365065</v>
+        <v>8.563322190635871</v>
       </c>
       <c r="C50">
-        <v>8.000000000000001e-05</v>
+        <v>0.00423</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1622,10 +1598,10 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>16.90072497365065</v>
+        <v>8.562148195737368</v>
       </c>
       <c r="C51">
-        <v>8.000000000000001e-05</v>
+        <v>0.00423</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1633,10 +1609,10 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>16.90072497365065</v>
+        <v>8.522411604658531</v>
       </c>
       <c r="C52">
-        <v>8.000000000000001e-05</v>
+        <v>0.00432</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1644,10 +1620,10 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>16.90072497365065</v>
+        <v>8.452952165283177</v>
       </c>
       <c r="C53">
-        <v>8.000000000000001e-05</v>
+        <v>0.00447</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1655,10 +1631,10 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>16.90072497365048</v>
+        <v>8.429130704584464</v>
       </c>
       <c r="C54">
-        <v>8.000000000000001e-05</v>
+        <v>0.00453</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1666,10 +1642,10 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>16.90072497365048</v>
+        <v>8.413731165337381</v>
       </c>
       <c r="C55">
-        <v>8.000000000000001e-05</v>
+        <v>0.00456</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1677,10 +1653,10 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>16.89769913702784</v>
+        <v>8.372058995931205</v>
       </c>
       <c r="C56">
-        <v>8.000000000000001e-05</v>
+        <v>0.00466</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1688,10 +1664,10 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>16.89325378316762</v>
+        <v>8.34266258359732</v>
       </c>
       <c r="C57">
-        <v>8.000000000000001e-05</v>
+        <v>0.00473</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1699,10 +1675,10 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>16.8904464218624</v>
+        <v>8.340662758648977</v>
       </c>
       <c r="C58">
-        <v>8.000000000000001e-05</v>
+        <v>0.00473</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1710,10 +1686,10 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>16.88270229554673</v>
+        <v>8.338223501905832</v>
       </c>
       <c r="C59">
-        <v>8.000000000000001e-05</v>
+        <v>0.00474</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1721,10 +1697,10 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>16.88100112687691</v>
+        <v>8.331310700062421</v>
       </c>
       <c r="C60">
-        <v>8.000000000000001e-05</v>
+        <v>0.00476</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1732,10 +1708,10 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>16.88097318008395</v>
+        <v>8.315159406309029</v>
       </c>
       <c r="C61">
-        <v>8.000000000000001e-05</v>
+        <v>0.0048</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1743,10 +1719,10 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>16.83585912832731</v>
+        <v>8.312110756689879</v>
       </c>
       <c r="C62">
-        <v>8.000000000000001e-05</v>
+        <v>0.0048</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1754,10 +1730,10 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>16.73711005947471</v>
+        <v>8.311776968075517</v>
       </c>
       <c r="C63">
-        <v>8.000000000000001e-05</v>
+        <v>0.0048</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1765,10 +1741,10 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>16.58901441230742</v>
+        <v>8.305771023275284</v>
       </c>
       <c r="C64">
-        <v>9.000000000000001e-05</v>
+        <v>0.00482</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1776,10 +1752,10 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>16.5825577549314</v>
+        <v>8.299739478831803</v>
       </c>
       <c r="C65">
-        <v>9.000000000000001e-05</v>
+        <v>0.00483</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1787,10 +1763,10 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>16.57383496273365</v>
+        <v>8.288305766378338</v>
       </c>
       <c r="C66">
-        <v>9.000000000000001e-05</v>
+        <v>0.00486</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1798,10 +1774,10 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>16.50895801400497</v>
+        <v>8.281227380978679</v>
       </c>
       <c r="C67">
-        <v>9.000000000000001e-05</v>
+        <v>0.00488</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1809,10 +1785,10 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>16.38100477213306</v>
+        <v>8.278820502138172</v>
       </c>
       <c r="C68">
-        <v>0.0001</v>
+        <v>0.00489</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1820,10 +1796,10 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>16.29745500960727</v>
+        <v>8.278820502138172</v>
       </c>
       <c r="C69">
-        <v>0.0001</v>
+        <v>0.00489</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1831,10 +1807,10 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>16.26663916352229</v>
+        <v>8.277705658306523</v>
       </c>
       <c r="C70">
-        <v>0.0001</v>
+        <v>0.00489</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1842,10 +1818,10 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>15.48198726126582</v>
+        <v>8.277110915250288</v>
       </c>
       <c r="C71">
-        <v>0.00015</v>
+        <v>0.00489</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1853,10 +1829,10 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>15.48198726126582</v>
+        <v>8.277110915250288</v>
       </c>
       <c r="C72">
-        <v>0.00015</v>
+        <v>0.00489</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1864,10 +1840,10 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>14.30987827655133</v>
+        <v>8.27464858394721</v>
       </c>
       <c r="C73">
-        <v>0.00025</v>
+        <v>0.0049</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1875,10 +1851,10 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>14.20289007696651</v>
+        <v>8.274297129596377</v>
       </c>
       <c r="C74">
-        <v>0.00027</v>
+        <v>0.0049</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1886,10 +1862,10 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>14.02869444103994</v>
+        <v>8.271618051930959</v>
       </c>
       <c r="C75">
-        <v>0.00029</v>
+        <v>0.0049</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1897,10 +1873,10 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>13.62443014587856</v>
+        <v>8.268804810928918</v>
       </c>
       <c r="C76">
-        <v>0.00035</v>
+        <v>0.00491</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1908,10 +1884,10 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>13.62090331594402</v>
+        <v>8.268804810928918</v>
       </c>
       <c r="C77">
-        <v>0.00035</v>
+        <v>0.00491</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1919,10 +1895,10 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>12.79047633007642</v>
+        <v>8.265178872059783</v>
       </c>
       <c r="C78">
-        <v>0.00052</v>
+        <v>0.00492</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1930,10 +1906,10 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>12.63366721163511</v>
+        <v>8.263808761965386</v>
       </c>
       <c r="C79">
-        <v>0.00056</v>
+        <v>0.00492</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1941,10 +1917,10 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>12.47672062684272</v>
+        <v>8.263537383192613</v>
       </c>
       <c r="C80">
-        <v>0.0005999999999999999</v>
+        <v>0.00492</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1952,10 +1928,10 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>12.4689963072294</v>
+        <v>8.261790462039947</v>
       </c>
       <c r="C81">
-        <v>0.00061</v>
+        <v>0.00493</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1963,10 +1939,10 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>12.3635413587619</v>
+        <v>8.261762243688025</v>
       </c>
       <c r="C82">
-        <v>0.0006400000000000001</v>
+        <v>0.00493</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1974,10 +1950,10 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>12.36213050445978</v>
+        <v>8.255479425674704</v>
       </c>
       <c r="C83">
-        <v>0.0006400000000000001</v>
+        <v>0.00494</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1985,10 +1961,10 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>12.32391820150211</v>
+        <v>8.255220608191303</v>
       </c>
       <c r="C84">
-        <v>0.00065</v>
+        <v>0.00494</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1996,10 +1972,10 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>12.29231144069126</v>
+        <v>8.254539207467694</v>
       </c>
       <c r="C85">
-        <v>0.00066</v>
+        <v>0.00495</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2007,10 +1983,10 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>11.92582578553768</v>
+        <v>8.25248981351996</v>
       </c>
       <c r="C86">
-        <v>0.00079</v>
+        <v>0.00495</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2018,10 +1994,10 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>11.55783518326182</v>
+        <v>8.251055714361264</v>
       </c>
       <c r="C87">
-        <v>0.00094</v>
+        <v>0.00496</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2029,10 +2005,10 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>11.52019774500435</v>
+        <v>8.251010219742053</v>
       </c>
       <c r="C88">
-        <v>0.00096</v>
+        <v>0.00496</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2040,10 +2016,10 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>11.46330293517839</v>
+        <v>8.250800770460897</v>
       </c>
       <c r="C89">
-        <v>0.00099</v>
+        <v>0.00496</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2051,10 +2027,10 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>11.46328416495515</v>
+        <v>8.250800770460897</v>
       </c>
       <c r="C90">
-        <v>0.00099</v>
+        <v>0.00496</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2062,10 +2038,10 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>11.46199037725313</v>
+        <v>8.24977865871892</v>
       </c>
       <c r="C91">
-        <v>0.00099</v>
+        <v>0.00496</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2073,10 +2049,10 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>11.14915930050827</v>
+        <v>8.248468657459332</v>
       </c>
       <c r="C92">
-        <v>0.00115</v>
+        <v>0.00496</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2084,10 +2060,10 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>10.89600219001687</v>
+        <v>8.247762365437897</v>
       </c>
       <c r="C93">
-        <v>0.0013</v>
+        <v>0.00496</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2095,10 +2071,10 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>10.86843999278129</v>
+        <v>8.247762365437897</v>
       </c>
       <c r="C94">
-        <v>0.00132</v>
+        <v>0.00496</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2106,10 +2082,10 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>10.8246915961035</v>
+        <v>8.247175405394566</v>
       </c>
       <c r="C95">
-        <v>0.00135</v>
+        <v>0.00496</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2117,10 +2093,10 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>10.81284828980789</v>
+        <v>8.246214903538291</v>
       </c>
       <c r="C96">
-        <v>0.00135</v>
+        <v>0.00497</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2128,10 +2104,10 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>10.80720351196594</v>
+        <v>8.244553430639437</v>
       </c>
       <c r="C97">
-        <v>0.00136</v>
+        <v>0.00497</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2139,10 +2115,10 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>10.78976626180734</v>
+        <v>8.244553430639437</v>
       </c>
       <c r="C98">
-        <v>0.00137</v>
+        <v>0.00497</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2150,10 +2126,10 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>10.78661091148629</v>
+        <v>8.243565218982559</v>
       </c>
       <c r="C99">
-        <v>0.00137</v>
+        <v>0.00497</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2161,10 +2137,10 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>10.78527694045087</v>
+        <v>8.243244740540709</v>
       </c>
       <c r="C100">
-        <v>0.00137</v>
+        <v>0.00497</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2172,10 +2148,10 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>10.78277592163159</v>
+        <v>8.241024089027837</v>
       </c>
       <c r="C101">
-        <v>0.00137</v>
+        <v>0.00498</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2183,10 +2159,10 @@
         <v>102</v>
       </c>
       <c r="B102">
-        <v>10.77827095931336</v>
+        <v>8.240830766545885</v>
       </c>
       <c r="C102">
-        <v>0.00138</v>
+        <v>0.00498</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2194,10 +2170,10 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>10.77817483765183</v>
+        <v>8.240779592509062</v>
       </c>
       <c r="C103">
-        <v>0.00138</v>
+        <v>0.00498</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2205,10 +2181,10 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>10.77128981397985</v>
+        <v>8.238900198464599</v>
       </c>
       <c r="C104">
-        <v>0.00138</v>
+        <v>0.00499</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2216,10 +2192,10 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <v>10.76668971383027</v>
+        <v>8.238839848085451</v>
       </c>
       <c r="C105">
-        <v>0.00139</v>
+        <v>0.00499</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2227,10 +2203,10 @@
         <v>106</v>
       </c>
       <c r="B106">
-        <v>10.76447030063512</v>
+        <v>8.236167870326708</v>
       </c>
       <c r="C106">
-        <v>0.00139</v>
+        <v>0.00499</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2238,10 +2214,10 @@
         <v>107</v>
       </c>
       <c r="B107">
-        <v>10.76015460150194</v>
+        <v>8.235254737909422</v>
       </c>
       <c r="C107">
-        <v>0.00139</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2249,10 +2225,10 @@
         <v>108</v>
       </c>
       <c r="B108">
-        <v>10.75090104127337</v>
+        <v>8.234961608340024</v>
       </c>
       <c r="C108">
-        <v>0.0014</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2260,10 +2236,10 @@
         <v>109</v>
       </c>
       <c r="B109">
-        <v>10.74475820220175</v>
+        <v>8.234811877809234</v>
       </c>
       <c r="C109">
-        <v>0.0014</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2271,10 +2247,10 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>10.74280703463904</v>
+        <v>8.234795963332335</v>
       </c>
       <c r="C110">
-        <v>0.0014</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2282,10 +2258,10 @@
         <v>111</v>
       </c>
       <c r="B111">
-        <v>10.73228675352119</v>
+        <v>8.234402807768564</v>
       </c>
       <c r="C111">
-        <v>0.00141</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2293,10 +2269,10 @@
         <v>112</v>
       </c>
       <c r="B112">
-        <v>10.72802303941681</v>
+        <v>8.233888243974544</v>
       </c>
       <c r="C112">
-        <v>0.00141</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2304,10 +2280,10 @@
         <v>113</v>
       </c>
       <c r="B113">
-        <v>10.70134281413459</v>
+        <v>8.233201559744879</v>
       </c>
       <c r="C113">
-        <v>0.00143</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2315,10 +2291,10 @@
         <v>114</v>
       </c>
       <c r="B114">
-        <v>10.69807075902433</v>
+        <v>8.232171041635455</v>
       </c>
       <c r="C114">
-        <v>0.00143</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2326,10 +2302,10 @@
         <v>115</v>
       </c>
       <c r="B115">
-        <v>10.69201844415271</v>
+        <v>8.231871659062833</v>
       </c>
       <c r="C115">
-        <v>0.00144</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2337,10 +2313,10 @@
         <v>116</v>
       </c>
       <c r="B116">
-        <v>10.68896436215417</v>
+        <v>8.231749929932121</v>
       </c>
       <c r="C116">
-        <v>0.00144</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2348,10 +2324,10 @@
         <v>117</v>
       </c>
       <c r="B117">
-        <v>10.66840200022873</v>
+        <v>8.231749929932121</v>
       </c>
       <c r="C117">
-        <v>0.00145</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2359,10 +2335,10 @@
         <v>118</v>
       </c>
       <c r="B118">
-        <v>10.66008347258407</v>
+        <v>8.231749929932027</v>
       </c>
       <c r="C118">
-        <v>0.00146</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2370,10 +2346,10 @@
         <v>119</v>
       </c>
       <c r="B119">
-        <v>10.61258539054711</v>
+        <v>8.231749929932027</v>
       </c>
       <c r="C119">
-        <v>0.00149</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2381,10 +2357,10 @@
         <v>120</v>
       </c>
       <c r="B120">
-        <v>10.60213125880362</v>
+        <v>8.231749929932027</v>
       </c>
       <c r="C120">
-        <v>0.0015</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2392,10 +2368,10 @@
         <v>121</v>
       </c>
       <c r="B121">
-        <v>10.59046252150399</v>
+        <v>8.231749929932027</v>
       </c>
       <c r="C121">
-        <v>0.00151</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2403,10 +2379,10 @@
         <v>122</v>
       </c>
       <c r="B122">
-        <v>10.5486222659606</v>
+        <v>8.230199725994808</v>
       </c>
       <c r="C122">
-        <v>0.00154</v>
+        <v>0.00501</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2414,10 +2390,10 @@
         <v>123</v>
       </c>
       <c r="B123">
-        <v>10.52440951393212</v>
+        <v>8.229384234158852</v>
       </c>
       <c r="C123">
-        <v>0.00156</v>
+        <v>0.00501</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2425,10 +2401,10 @@
         <v>124</v>
       </c>
       <c r="B124">
-        <v>10.43751551524185</v>
+        <v>8.228408961654038</v>
       </c>
       <c r="C124">
-        <v>0.00163</v>
+        <v>0.00501</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2436,10 +2412,10 @@
         <v>125</v>
       </c>
       <c r="B125">
-        <v>10.2975472986164</v>
+        <v>8.228197366208576</v>
       </c>
       <c r="C125">
-        <v>0.00175</v>
+        <v>0.00501</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2447,10 +2423,10 @@
         <v>126</v>
       </c>
       <c r="B126">
-        <v>9.853164798778215</v>
+        <v>8.228010072288729</v>
       </c>
       <c r="C126">
-        <v>0.00218</v>
+        <v>0.00501</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -2458,10 +2434,10 @@
         <v>127</v>
       </c>
       <c r="B127">
-        <v>9.850885529596452</v>
+        <v>8.226253452541751</v>
       </c>
       <c r="C127">
-        <v>0.00218</v>
+        <v>0.00502</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2469,10 +2445,10 @@
         <v>128</v>
       </c>
       <c r="B128">
-        <v>9.727732911763651</v>
+        <v>8.225962001163889</v>
       </c>
       <c r="C128">
-        <v>0.00232</v>
+        <v>0.00502</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2480,10 +2456,10 @@
         <v>129</v>
       </c>
       <c r="B129">
-        <v>9.675138982730045</v>
+        <v>8.225910479467254</v>
       </c>
       <c r="C129">
-        <v>0.00238</v>
+        <v>0.00502</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2491,10 +2467,10 @@
         <v>130</v>
       </c>
       <c r="B130">
-        <v>9.210617195376502</v>
+        <v>8.225287442335356</v>
       </c>
       <c r="C130">
-        <v>0.003</v>
+        <v>0.00502</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2502,10 +2478,10 @@
         <v>131</v>
       </c>
       <c r="B131">
-        <v>9.091195816532727</v>
+        <v>8.22371537009783</v>
       </c>
       <c r="C131">
-        <v>0.00319</v>
+        <v>0.00502</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -2513,10 +2489,10 @@
         <v>132</v>
       </c>
       <c r="B132">
-        <v>9.091195816530826</v>
+        <v>8.223623182375299</v>
       </c>
       <c r="C132">
-        <v>0.00319</v>
+        <v>0.00502</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -2524,10 +2500,10 @@
         <v>133</v>
       </c>
       <c r="B133">
-        <v>8.375803855376466</v>
+        <v>8.221722719265445</v>
       </c>
       <c r="C133">
-        <v>0.00459</v>
+        <v>0.00503</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -2535,10 +2511,10 @@
         <v>134</v>
       </c>
       <c r="B134">
-        <v>8.330226227818111</v>
+        <v>8.221546528874864</v>
       </c>
       <c r="C134">
-        <v>0.00469</v>
+        <v>0.00503</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -2546,10 +2522,10 @@
         <v>135</v>
       </c>
       <c r="B135">
-        <v>8.191381816397543</v>
+        <v>8.221296719125162</v>
       </c>
       <c r="C135">
-        <v>0.00504</v>
+        <v>0.00503</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -2557,10 +2533,10 @@
         <v>136</v>
       </c>
       <c r="B136">
-        <v>8.190527541004091</v>
+        <v>8.220532203488103</v>
       </c>
       <c r="C136">
-        <v>0.00504</v>
+        <v>0.00503</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -2568,10 +2544,10 @@
         <v>137</v>
       </c>
       <c r="B137">
-        <v>8.187692910135251</v>
+        <v>8.219292480788956</v>
       </c>
       <c r="C137">
-        <v>0.00505</v>
+        <v>0.00504</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2579,10 +2555,10 @@
         <v>138</v>
       </c>
       <c r="B138">
-        <v>8.185880734729203</v>
+        <v>8.218434079057714</v>
       </c>
       <c r="C138">
-        <v>0.00505</v>
+        <v>0.00504</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -2590,10 +2566,10 @@
         <v>139</v>
       </c>
       <c r="B139">
-        <v>8.155625628104588</v>
+        <v>8.21766593388219</v>
       </c>
       <c r="C139">
-        <v>0.00513</v>
+        <v>0.00504</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -2601,10 +2577,10 @@
         <v>140</v>
       </c>
       <c r="B140">
-        <v>8.068049479578731</v>
+        <v>8.217189278517816</v>
       </c>
       <c r="C140">
-        <v>0.00537</v>
+        <v>0.00504</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -2612,10 +2588,10 @@
         <v>141</v>
       </c>
       <c r="B141">
-        <v>8.068049479578731</v>
+        <v>8.216337663955565</v>
       </c>
       <c r="C141">
-        <v>0.00537</v>
+        <v>0.00504</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -2623,10 +2599,10 @@
         <v>142</v>
       </c>
       <c r="B142">
-        <v>7.914260041476222</v>
+        <v>8.216315870745651</v>
       </c>
       <c r="C142">
-        <v>0.00581</v>
+        <v>0.00504</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -2634,10 +2610,10 @@
         <v>143</v>
       </c>
       <c r="B143">
-        <v>7.810237545166068</v>
+        <v>8.215010518695381</v>
       </c>
       <c r="C143">
-        <v>0.00613</v>
+        <v>0.00505</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -2645,10 +2621,10 @@
         <v>144</v>
       </c>
       <c r="B144">
-        <v>7.773574294694979</v>
+        <v>8.214943353655705</v>
       </c>
       <c r="C144">
-        <v>0.00625</v>
+        <v>0.00505</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -2656,10 +2632,10 @@
         <v>145</v>
       </c>
       <c r="B145">
-        <v>7.719761088332398</v>
+        <v>8.21444392426335</v>
       </c>
       <c r="C145">
-        <v>0.00642</v>
+        <v>0.00505</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -2667,10 +2643,10 @@
         <v>146</v>
       </c>
       <c r="B146">
-        <v>7.702054972568765</v>
+        <v>8.214142538846472</v>
       </c>
       <c r="C146">
-        <v>0.00648</v>
+        <v>0.00505</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -2678,10 +2654,10 @@
         <v>147</v>
       </c>
       <c r="B147">
-        <v>7.58789481642311</v>
+        <v>8.21376505237747</v>
       </c>
       <c r="C147">
-        <v>0.00688</v>
+        <v>0.00505</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2689,10 +2665,10 @@
         <v>148</v>
       </c>
       <c r="B148">
-        <v>7.584450921160268</v>
+        <v>8.212829862563815</v>
       </c>
       <c r="C148">
-        <v>0.00689</v>
+        <v>0.00505</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2700,10 +2676,10 @@
         <v>149</v>
       </c>
       <c r="B149">
-        <v>7.569334108251113</v>
+        <v>8.212656690111219</v>
       </c>
       <c r="C149">
-        <v>0.00694</v>
+        <v>0.00505</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2711,10 +2687,10 @@
         <v>150</v>
       </c>
       <c r="B150">
-        <v>7.563600656592333</v>
+        <v>8.211744448179315</v>
       </c>
       <c r="C150">
-        <v>0.00697</v>
+        <v>0.00506</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2722,10 +2698,10 @@
         <v>151</v>
       </c>
       <c r="B151">
-        <v>7.550349226864942</v>
+        <v>8.208734660212928</v>
       </c>
       <c r="C151">
-        <v>0.00701</v>
+        <v>0.00506</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2733,10 +2709,10 @@
         <v>152</v>
       </c>
       <c r="B152">
-        <v>7.550349226864942</v>
+        <v>8.20850517673275</v>
       </c>
       <c r="C152">
-        <v>0.00701</v>
+        <v>0.00506</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2744,10 +2720,10 @@
         <v>153</v>
       </c>
       <c r="B153">
-        <v>7.549152781677235</v>
+        <v>8.206461370195079</v>
       </c>
       <c r="C153">
-        <v>0.00702</v>
+        <v>0.00507</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2755,10 +2731,10 @@
         <v>154</v>
       </c>
       <c r="B154">
-        <v>7.546289395047844</v>
+        <v>8.206187565183438</v>
       </c>
       <c r="C154">
-        <v>0.00703</v>
+        <v>0.00507</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2766,10 +2742,10 @@
         <v>155</v>
       </c>
       <c r="B155">
-        <v>7.545501431826285</v>
+        <v>8.200138016497993</v>
       </c>
       <c r="C155">
-        <v>0.00703</v>
+        <v>0.00509</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2777,10 +2753,10 @@
         <v>156</v>
       </c>
       <c r="B156">
-        <v>7.541210060021628</v>
+        <v>8.197813987832768</v>
       </c>
       <c r="C156">
-        <v>0.00705</v>
+        <v>0.00509</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2788,10 +2764,10 @@
         <v>157</v>
       </c>
       <c r="B157">
-        <v>7.539795300220202</v>
+        <v>8.197029845952878</v>
       </c>
       <c r="C157">
-        <v>0.00705</v>
+        <v>0.00509</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2799,10 +2775,10 @@
         <v>158</v>
       </c>
       <c r="B158">
-        <v>7.539795300220202</v>
+        <v>8.196957096260377</v>
       </c>
       <c r="C158">
-        <v>0.00705</v>
+        <v>0.00509</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2810,10 +2786,10 @@
         <v>159</v>
       </c>
       <c r="B159">
-        <v>7.538909872094604</v>
+        <v>8.196060029400645</v>
       </c>
       <c r="C159">
-        <v>0.00706</v>
+        <v>0.0051</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2821,10 +2797,10 @@
         <v>160</v>
       </c>
       <c r="B160">
-        <v>7.538909872094604</v>
+        <v>8.195914109566512</v>
       </c>
       <c r="C160">
-        <v>0.00706</v>
+        <v>0.0051</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2832,10 +2808,10 @@
         <v>161</v>
       </c>
       <c r="B161">
-        <v>7.535034229403077</v>
+        <v>8.194517195221541</v>
       </c>
       <c r="C161">
-        <v>0.00707</v>
+        <v>0.0051</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2843,10 +2819,10 @@
         <v>162</v>
       </c>
       <c r="B162">
-        <v>7.532945495803991</v>
+        <v>8.194028465374959</v>
       </c>
       <c r="C162">
-        <v>0.00708</v>
+        <v>0.0051</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2854,10 +2830,10 @@
         <v>163</v>
       </c>
       <c r="B163">
-        <v>7.52482028714642</v>
+        <v>8.191068486284701</v>
       </c>
       <c r="C163">
-        <v>0.00711</v>
+        <v>0.00511</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2865,10 +2841,10 @@
         <v>164</v>
       </c>
       <c r="B164">
-        <v>7.523804162734011</v>
+        <v>8.189803795041588</v>
       </c>
       <c r="C164">
-        <v>0.00711</v>
+        <v>0.00511</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2876,10 +2852,10 @@
         <v>165</v>
       </c>
       <c r="B165">
-        <v>7.523141329714649</v>
+        <v>8.188955737154902</v>
       </c>
       <c r="C165">
-        <v>0.00711</v>
+        <v>0.00511</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2887,10 +2863,10 @@
         <v>166</v>
       </c>
       <c r="B166">
-        <v>7.520655166397882</v>
+        <v>8.187645808235924</v>
       </c>
       <c r="C166">
-        <v>0.00712</v>
+        <v>0.00512</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2898,10 +2874,10 @@
         <v>167</v>
       </c>
       <c r="B167">
-        <v>7.52034520614029</v>
+        <v>8.187634980988779</v>
       </c>
       <c r="C167">
-        <v>0.00712</v>
+        <v>0.00512</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2909,10 +2885,10 @@
         <v>168</v>
       </c>
       <c r="B168">
-        <v>7.518765039041791</v>
+        <v>8.182414353170204</v>
       </c>
       <c r="C168">
-        <v>0.00713</v>
+        <v>0.00513</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2920,10 +2896,10 @@
         <v>169</v>
       </c>
       <c r="B169">
-        <v>7.51835840067687</v>
+        <v>8.178510325002655</v>
       </c>
       <c r="C169">
-        <v>0.00713</v>
+        <v>0.00514</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2931,10 +2907,10 @@
         <v>170</v>
       </c>
       <c r="B170">
-        <v>7.517064789492261</v>
+        <v>8.174092357211281</v>
       </c>
       <c r="C170">
-        <v>0.00714</v>
+        <v>0.00515</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2942,10 +2918,10 @@
         <v>171</v>
       </c>
       <c r="B171">
-        <v>7.514584972664002</v>
+        <v>8.167112868940212</v>
       </c>
       <c r="C171">
-        <v>0.00714</v>
+        <v>0.00517</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2953,10 +2929,10 @@
         <v>172</v>
       </c>
       <c r="B172">
-        <v>7.512332463968453</v>
+        <v>8.164253861343964</v>
       </c>
       <c r="C172">
-        <v>0.00715</v>
+        <v>0.00518</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2964,10 +2940,10 @@
         <v>173</v>
       </c>
       <c r="B173">
-        <v>7.51088674666178</v>
+        <v>8.15333811079981</v>
       </c>
       <c r="C173">
-        <v>0.00716</v>
+        <v>0.00521</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2975,10 +2951,10 @@
         <v>174</v>
       </c>
       <c r="B174">
-        <v>7.51088674666178</v>
+        <v>8.153002716516411</v>
       </c>
       <c r="C174">
-        <v>0.00716</v>
+        <v>0.00521</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2986,10 +2962,10 @@
         <v>175</v>
       </c>
       <c r="B175">
-        <v>7.51060971410918</v>
+        <v>8.1518968959098</v>
       </c>
       <c r="C175">
-        <v>0.00716</v>
+        <v>0.00521</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2997,10 +2973,10 @@
         <v>176</v>
       </c>
       <c r="B176">
-        <v>7.509543306749315</v>
+        <v>8.151725025623326</v>
       </c>
       <c r="C176">
-        <v>0.00716</v>
+        <v>0.00521</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -3008,10 +2984,10 @@
         <v>177</v>
       </c>
       <c r="B177">
-        <v>7.508018220969906</v>
+        <v>8.151172088402339</v>
       </c>
       <c r="C177">
-        <v>0.00717</v>
+        <v>0.00521</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -3019,10 +2995,10 @@
         <v>178</v>
       </c>
       <c r="B178">
-        <v>7.504983384146232</v>
+        <v>8.148854421640735</v>
       </c>
       <c r="C178">
-        <v>0.00718</v>
+        <v>0.00522</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -3030,10 +3006,10 @@
         <v>179</v>
       </c>
       <c r="B179">
-        <v>7.503579156984904</v>
+        <v>8.147280702101831</v>
       </c>
       <c r="C179">
-        <v>0.00719</v>
+        <v>0.00522</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -3041,10 +3017,10 @@
         <v>180</v>
       </c>
       <c r="B180">
-        <v>7.502372737193148</v>
+        <v>8.147162491835273</v>
       </c>
       <c r="C180">
-        <v>0.00719</v>
+        <v>0.00522</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -3052,10 +3028,10 @@
         <v>181</v>
       </c>
       <c r="B181">
-        <v>7.498010822038133</v>
+        <v>8.137072973778613</v>
       </c>
       <c r="C181">
-        <v>0.00721</v>
+        <v>0.00525</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -3063,10 +3039,10 @@
         <v>182</v>
       </c>
       <c r="B182">
-        <v>7.493882220755212</v>
+        <v>8.132573734575862</v>
       </c>
       <c r="C182">
-        <v>0.00722</v>
+        <v>0.00526</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -3074,10 +3050,10 @@
         <v>183</v>
       </c>
       <c r="B183">
-        <v>7.493384548044711</v>
+        <v>8.125107341030171</v>
       </c>
       <c r="C183">
-        <v>0.00722</v>
+        <v>0.00528</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -3085,10 +3061,10 @@
         <v>184</v>
       </c>
       <c r="B184">
-        <v>7.49090368184958</v>
+        <v>8.11838281539011</v>
       </c>
       <c r="C184">
-        <v>0.00723</v>
+        <v>0.0053</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -3096,10 +3072,10 @@
         <v>185</v>
       </c>
       <c r="B185">
-        <v>7.490461649329649</v>
+        <v>8.116524472401139</v>
       </c>
       <c r="C185">
-        <v>0.00723</v>
+        <v>0.00531</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -3107,10 +3083,10 @@
         <v>186</v>
       </c>
       <c r="B186">
-        <v>7.488940659349331</v>
+        <v>8.107522382242717</v>
       </c>
       <c r="C186">
-        <v>0.00724</v>
+        <v>0.00533</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -3118,10 +3094,10 @@
         <v>187</v>
       </c>
       <c r="B187">
-        <v>7.485560133393874</v>
+        <v>8.104932334294508</v>
       </c>
       <c r="C187">
-        <v>0.00725</v>
+        <v>0.00534</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -3129,10 +3105,10 @@
         <v>188</v>
       </c>
       <c r="B188">
-        <v>7.485146838169261</v>
+        <v>8.1039959148861</v>
       </c>
       <c r="C188">
-        <v>0.00725</v>
+        <v>0.00534</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -3140,10 +3116,10 @@
         <v>189</v>
       </c>
       <c r="B189">
-        <v>7.485024562779627</v>
+        <v>8.100489806055542</v>
       </c>
       <c r="C189">
-        <v>0.00726</v>
+        <v>0.00535</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -3151,10 +3127,10 @@
         <v>190</v>
       </c>
       <c r="B190">
-        <v>7.48397461376332</v>
+        <v>8.094186940644715</v>
       </c>
       <c r="C190">
-        <v>0.00726</v>
+        <v>0.00537</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -3162,10 +3138,10 @@
         <v>191</v>
       </c>
       <c r="B191">
-        <v>7.482833034574715</v>
+        <v>8.084656718404053</v>
       </c>
       <c r="C191">
-        <v>0.00726</v>
+        <v>0.00539</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -3173,10 +3149,10 @@
         <v>192</v>
       </c>
       <c r="B192">
-        <v>7.482136244420512</v>
+        <v>8.078535059809665</v>
       </c>
       <c r="C192">
-        <v>0.00727</v>
+        <v>0.00541</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -3184,10 +3160,10 @@
         <v>193</v>
       </c>
       <c r="B193">
-        <v>7.481519489819412</v>
+        <v>8.074994712931376</v>
       </c>
       <c r="C193">
-        <v>0.00727</v>
+        <v>0.00542</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -3195,10 +3171,10 @@
         <v>194</v>
       </c>
       <c r="B194">
-        <v>7.481499080224753</v>
+        <v>8.069806539155769</v>
       </c>
       <c r="C194">
-        <v>0.00727</v>
+        <v>0.00543</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -3206,10 +3182,10 @@
         <v>195</v>
       </c>
       <c r="B195">
-        <v>7.481096773090403</v>
+        <v>8.069649447761201</v>
       </c>
       <c r="C195">
-        <v>0.00727</v>
+        <v>0.00544</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -3217,10 +3193,10 @@
         <v>196</v>
       </c>
       <c r="B196">
-        <v>7.478046412934781</v>
+        <v>8.053684546364053</v>
       </c>
       <c r="C196">
-        <v>0.00728</v>
+        <v>0.00548</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -3228,10 +3204,10 @@
         <v>197</v>
       </c>
       <c r="B197">
-        <v>7.477650234972564</v>
+        <v>8.040794861219718</v>
       </c>
       <c r="C197">
-        <v>0.00728</v>
+        <v>0.00552</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -3239,10 +3215,10 @@
         <v>198</v>
       </c>
       <c r="B198">
-        <v>7.472125765837666</v>
+        <v>8.033584712089489</v>
       </c>
       <c r="C198">
-        <v>0.0073</v>
+        <v>0.00554</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -3250,10 +3226,10 @@
         <v>199</v>
       </c>
       <c r="B199">
-        <v>7.467062621045135</v>
+        <v>8.025423224077358</v>
       </c>
       <c r="C199">
-        <v>0.00732</v>
+        <v>0.00556</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -3261,10 +3237,10 @@
         <v>200</v>
       </c>
       <c r="B200">
-        <v>7.46682373250271</v>
+        <v>8.018689402732964</v>
       </c>
       <c r="C200">
-        <v>0.00732</v>
+        <v>0.00558</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -3272,10 +3248,10 @@
         <v>201</v>
       </c>
       <c r="B201">
-        <v>7.463196256916007</v>
+        <v>8.01743548336651</v>
       </c>
       <c r="C201">
-        <v>0.00734</v>
+        <v>0.00558</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -3283,10 +3259,10 @@
         <v>202</v>
       </c>
       <c r="B202">
-        <v>7.461387730445183</v>
+        <v>8.015838952300394</v>
       </c>
       <c r="C202">
-        <v>0.00734</v>
+        <v>0.00559</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -3294,10 +3270,10 @@
         <v>203</v>
       </c>
       <c r="B203">
-        <v>7.461143668715025</v>
+        <v>8.015575269590682</v>
       </c>
       <c r="C203">
-        <v>0.00735</v>
+        <v>0.00559</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -3305,10 +3281,10 @@
         <v>204</v>
       </c>
       <c r="B204">
-        <v>7.450076473795678</v>
+        <v>8.015347357439033</v>
       </c>
       <c r="C204">
-        <v>0.00739</v>
+        <v>0.00559</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -3316,10 +3292,10 @@
         <v>205</v>
       </c>
       <c r="B205">
-        <v>7.449428923275749</v>
+        <v>8.009001766186433</v>
       </c>
       <c r="C205">
-        <v>0.00739</v>
+        <v>0.00561</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -3327,10 +3303,10 @@
         <v>206</v>
       </c>
       <c r="B206">
-        <v>7.437570307241901</v>
+        <v>7.988696674469179</v>
       </c>
       <c r="C206">
-        <v>0.00744</v>
+        <v>0.00566</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -3338,10 +3314,10 @@
         <v>207</v>
       </c>
       <c r="B207">
-        <v>7.430600175509475</v>
+        <v>7.926501573475435</v>
       </c>
       <c r="C207">
-        <v>0.00746</v>
+        <v>0.00585</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -3349,10 +3325,10 @@
         <v>208</v>
       </c>
       <c r="B208">
-        <v>7.416975030453248</v>
+        <v>7.900034157643137</v>
       </c>
       <c r="C208">
-        <v>0.00752</v>
+        <v>0.00593</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -3360,10 +3336,10 @@
         <v>209</v>
       </c>
       <c r="B209">
-        <v>7.410762048884365</v>
+        <v>7.882713734735542</v>
       </c>
       <c r="C209">
-        <v>0.00754</v>
+        <v>0.00598</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -3371,10 +3347,10 @@
         <v>210</v>
       </c>
       <c r="B210">
-        <v>7.409706665160567</v>
+        <v>7.843518334585504</v>
       </c>
       <c r="C210">
-        <v>0.00754</v>
+        <v>0.0061</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -3382,10 +3358,10 @@
         <v>211</v>
       </c>
       <c r="B211">
-        <v>7.408732512569632</v>
+        <v>7.829008025220483</v>
       </c>
       <c r="C211">
-        <v>0.00755</v>
+        <v>0.00615</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -3393,10 +3369,10 @@
         <v>212</v>
       </c>
       <c r="B212">
-        <v>7.408495546449432</v>
+        <v>7.827965750435034</v>
       </c>
       <c r="C212">
-        <v>0.00755</v>
+        <v>0.00615</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -3404,10 +3380,10 @@
         <v>213</v>
       </c>
       <c r="B213">
-        <v>7.395593007354647</v>
+        <v>7.827381554253411</v>
       </c>
       <c r="C213">
-        <v>0.0076</v>
+        <v>0.00615</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -3415,10 +3391,10 @@
         <v>214</v>
       </c>
       <c r="B214">
-        <v>7.379019434501275</v>
+        <v>7.799024717686964</v>
       </c>
       <c r="C214">
-        <v>0.00767</v>
+        <v>0.00624</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -3426,10 +3402,10 @@
         <v>215</v>
       </c>
       <c r="B215">
-        <v>7.354856478649592</v>
+        <v>7.784622144916834</v>
       </c>
       <c r="C215">
-        <v>0.00776</v>
+        <v>0.00629</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -3437,10 +3413,10 @@
         <v>216</v>
       </c>
       <c r="B216">
-        <v>7.335291538313283</v>
+        <v>7.782498591558831</v>
       </c>
       <c r="C216">
-        <v>0.00784</v>
+        <v>0.0063</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -3448,10 +3424,10 @@
         <v>217</v>
       </c>
       <c r="B217">
-        <v>7.320742227269018</v>
+        <v>7.773445438036826</v>
       </c>
       <c r="C217">
-        <v>0.007900000000000001</v>
+        <v>0.00633</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -3459,10 +3435,10 @@
         <v>218</v>
       </c>
       <c r="B218">
-        <v>7.320442140342913</v>
+        <v>7.723206854851382</v>
       </c>
       <c r="C218">
-        <v>0.007900000000000001</v>
+        <v>0.00649</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -3470,10 +3446,10 @@
         <v>219</v>
       </c>
       <c r="B219">
-        <v>7.316910222941932</v>
+        <v>7.711726021847473</v>
       </c>
       <c r="C219">
-        <v>0.00792</v>
+        <v>0.00653</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -3481,10 +3457,10 @@
         <v>220</v>
       </c>
       <c r="B220">
-        <v>7.310180539010343</v>
+        <v>7.664601186613053</v>
       </c>
       <c r="C220">
-        <v>0.00795</v>
+        <v>0.00669</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -3492,10 +3468,10 @@
         <v>221</v>
       </c>
       <c r="B221">
-        <v>7.309720485249873</v>
+        <v>7.349494411356681</v>
       </c>
       <c r="C221">
-        <v>0.00795</v>
+        <v>0.00787</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -3503,98 +3479,10 @@
         <v>222</v>
       </c>
       <c r="B222">
-        <v>7.191882919851742</v>
+        <v>7.340970185548134</v>
       </c>
       <c r="C222">
-        <v>0.008449999999999999</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3">
-      <c r="A223" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B223">
-        <v>7.188830787415506</v>
-      </c>
-      <c r="C223">
-        <v>0.00847</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3">
-      <c r="A224" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B224">
-        <v>7.136566979676154</v>
-      </c>
-      <c r="C224">
-        <v>0.008699999999999999</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3">
-      <c r="A225" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B225">
-        <v>7.136214063270279</v>
-      </c>
-      <c r="C225">
-        <v>0.008699999999999999</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3">
-      <c r="A226" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B226">
-        <v>7.079475296389884</v>
-      </c>
-      <c r="C226">
-        <v>0.008959999999999999</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3">
-      <c r="A227" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="B227">
-        <v>7.071581658484632</v>
-      </c>
-      <c r="C227">
-        <v>0.008999999999999999</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3">
-      <c r="A228" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B228">
-        <v>7.070339339868076</v>
-      </c>
-      <c r="C228">
-        <v>0.009010000000000001</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3">
-      <c r="A229" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="B229">
-        <v>7.067622430180677</v>
-      </c>
-      <c r="C229">
-        <v>0.00902</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3">
-      <c r="A230" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B230">
-        <v>7.033641815623547</v>
-      </c>
-      <c r="C230">
-        <v>0.009180000000000001</v>
+        <v>0.00791</v>
       </c>
     </row>
   </sheetData>
